--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABDE/10/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABDE/10/seed2/result_data_RandomForest.xlsx
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.98490000000002</v>
+        <v>-21.96310000000001</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -488,7 +488,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.650799999999999</v>
+        <v>-7.293799999999997</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -763,7 +763,7 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.21709999999999</v>
+        <v>16.33089999999999</v>
       </c>
     </row>
     <row r="20">
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.17709999999998</v>
+        <v>-20.47569999999997</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.19819999999998</v>
+        <v>-20.42229999999997</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -845,15 +845,15 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.342500000000002</v>
+        <v>-7.453800000000006</v>
       </c>
       <c r="E24" t="n">
-        <v>16.71020000000001</v>
+        <v>16.6873</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.84639999999998</v>
+        <v>-21.69219999999999</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -890,7 +890,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>5.790900000000001</v>
+        <v>6.693400000000006</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -950,7 +950,7 @@
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>15.19769999999999</v>
+        <v>15.57089999999999</v>
       </c>
     </row>
     <row r="31">
@@ -958,7 +958,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>5.185700000000001</v>
+        <v>5.3368</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -967,7 +967,7 @@
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>16.06799999999999</v>
+        <v>16.38749999999999</v>
       </c>
     </row>
     <row r="32">
@@ -1001,7 +1001,7 @@
         <v>-6.63</v>
       </c>
       <c r="E33" t="n">
-        <v>17.11750000000001</v>
+        <v>17.42850000000001</v>
       </c>
     </row>
     <row r="34">
@@ -1094,7 +1094,7 @@
         <v>-18.76</v>
       </c>
       <c r="B39" t="n">
-        <v>9.610100000000003</v>
+        <v>9.695100000000007</v>
       </c>
       <c r="C39" t="n">
         <v>-10.58</v>
@@ -1247,7 +1247,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.345400000000004</v>
+        <v>5.510899999999998</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1298,7 +1298,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.7341</v>
+        <v>5.510199999999997</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.4808</v>
+        <v>5.371299999999998</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.8108</v>
+        <v>-21.8202</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5.883699999999996</v>
+        <v>5.897299999999999</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1375,7 +1375,7 @@
         <v>-10.06</v>
       </c>
       <c r="E55" t="n">
-        <v>16.58029999999999</v>
+        <v>16.5979</v>
       </c>
     </row>
     <row r="56">
@@ -1383,7 +1383,7 @@
         <v>-21.95</v>
       </c>
       <c r="B56" t="n">
-        <v>5.221699999999999</v>
+        <v>5.046600000000002</v>
       </c>
       <c r="C56" t="n">
         <v>-13.63</v>
@@ -1397,16 +1397,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.3704</v>
+        <v>-22.3997</v>
       </c>
       <c r="B57" t="n">
-        <v>4.776499999999996</v>
+        <v>4.751499999999996</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.752600000000003</v>
+        <v>-8.790600000000001</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.34069999999999</v>
+        <v>-22.39670000000001</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1474,7 +1474,7 @@
         <v>-11.89</v>
       </c>
       <c r="D61" t="n">
-        <v>-7.780499999999997</v>
+        <v>-7.695800000000004</v>
       </c>
       <c r="E61" t="n">
         <v>16.69</v>
@@ -1545,7 +1545,7 @@
         <v>-7.07</v>
       </c>
       <c r="E65" t="n">
-        <v>17.04740000000001</v>
+        <v>17.36340000000002</v>
       </c>
     </row>
     <row r="66">
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.59539999999999</v>
+        <v>-21.60149999999998</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1627,10 +1627,10 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-8.417600000000004</v>
+        <v>-7.952600000000001</v>
       </c>
       <c r="E70" t="n">
-        <v>16.7088</v>
+        <v>16.6799</v>
       </c>
     </row>
     <row r="71">
@@ -1672,7 +1672,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>8.562299999999997</v>
+        <v>8.644499999999999</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1715,7 +1715,7 @@
         <v>-7.62</v>
       </c>
       <c r="E75" t="n">
-        <v>16.8622</v>
+        <v>16.5582</v>
       </c>
     </row>
     <row r="76">
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.54300000000001</v>
+        <v>-21.0567</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.9771</v>
+        <v>-21.9892</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1851,7 +1851,7 @@
         <v>-7.67</v>
       </c>
       <c r="E83" t="n">
-        <v>17.2444</v>
+        <v>16.7502</v>
       </c>
     </row>
     <row r="84">
@@ -1899,7 +1899,7 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-7.57939999999999</v>
+        <v>-7.678499999999996</v>
       </c>
       <c r="E86" t="n">
         <v>17.03</v>
@@ -1944,7 +1944,7 @@
         <v>-21.45</v>
       </c>
       <c r="B89" t="n">
-        <v>5.014399999999997</v>
+        <v>5.296599999999995</v>
       </c>
       <c r="C89" t="n">
         <v>-10.11</v>
@@ -1961,7 +1961,7 @@
         <v>-21.82</v>
       </c>
       <c r="B90" t="n">
-        <v>5.677200000000004</v>
+        <v>5.668500000000003</v>
       </c>
       <c r="C90" t="n">
         <v>-12.06</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.2589</v>
+        <v>-21.38039999999999</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2072,7 +2072,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>15.80759999999999</v>
+        <v>15.7518</v>
       </c>
     </row>
     <row r="97">
@@ -2089,7 +2089,7 @@
         <v>-7.59</v>
       </c>
       <c r="E97" t="n">
-        <v>16.94850000000001</v>
+        <v>16.55340000000001</v>
       </c>
     </row>
     <row r="98">
@@ -2103,7 +2103,7 @@
         <v>-13.95</v>
       </c>
       <c r="D98" t="n">
-        <v>-8.830699999999997</v>
+        <v>-8.787199999999999</v>
       </c>
       <c r="E98" t="n">
         <v>15.27</v>
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.657999999999996</v>
+        <v>-8.559899999999997</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.729799999999998</v>
+        <v>-7.518799999999995</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
